--- a/wash_P/RUS.xlsx
+++ b/wash_P/RUS.xlsx
@@ -86308,7 +86308,7 @@
         <v>0</v>
       </c>
       <c r="AEQ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AER27" t="n">
         <v>0</v>
@@ -87354,7 +87354,7 @@
         <v>0</v>
       </c>
       <c r="DY28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ28" t="n">
         <v>0</v>
@@ -89436,7 +89436,7 @@
         <v>0</v>
       </c>
       <c r="AEQ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AER28" t="n">
         <v>0</v>
